--- a/Southern Annular Mode.xlsx
+++ b/Southern Annular Mode.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/37a0ce551f5721cc/Documents/Coding TA/Uji Coba TA/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CDA3DF50-1599-44AC-AF0B-FF506E099ECB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="5" documentId="8_{CDA3DF50-1599-44AC-AF0B-FF506E099ECB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{58980388-CB97-49E1-A365-95E684930BC6}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{9F3ED214-FA25-4CD0-B820-2F5555C3A314}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15375" windowHeight="7875" xr2:uid="{9F3ED214-FA25-4CD0-B820-2F5555C3A314}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="363">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="364">
   <si>
     <t>Jan</t>
   </si>
@@ -39,30 +39,18 @@
     <t>Apr</t>
   </si>
   <si>
-    <t>May</t>
-  </si>
-  <si>
     <t>Jun</t>
   </si>
   <si>
     <t>Jul</t>
   </si>
   <si>
-    <t>Aug</t>
-  </si>
-  <si>
     <t>Sep</t>
   </si>
   <si>
-    <t>Oct</t>
-  </si>
-  <si>
     <t>Nov</t>
   </si>
   <si>
-    <t>Dec</t>
-  </si>
-  <si>
     <t>0.209</t>
   </si>
   <si>
@@ -1114,6 +1102,21 @@
   </si>
   <si>
     <t>-0.080</t>
+  </si>
+  <si>
+    <t>Tahun</t>
+  </si>
+  <si>
+    <t>Des</t>
+  </si>
+  <si>
+    <t>Mei</t>
+  </si>
+  <si>
+    <t>Ags</t>
+  </si>
+  <si>
+    <t>Okt</t>
   </si>
 </sst>
 </file>
@@ -1488,7 +1491,7 @@
   <dimension ref="A1:M48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="K1" sqref="K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1497,7 +1500,9 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
-      <c r="A1" s="2"/>
+      <c r="A1" s="2" t="s">
+        <v>359</v>
+      </c>
       <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1511,28 +1516,28 @@
         <v>3</v>
       </c>
       <c r="F1" s="3" t="s">
+        <v>361</v>
+      </c>
+      <c r="G1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="3" t="s">
+        <v>362</v>
+      </c>
+      <c r="J1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="K1" s="3" t="s">
+        <v>363</v>
+      </c>
+      <c r="L1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="M1" s="3" t="s">
-        <v>11</v>
+        <v>360</v>
       </c>
     </row>
     <row r="2" spans="1:13">
@@ -1540,19 +1545,19 @@
         <v>1979</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="3" t="s">
         <v>12</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>16</v>
       </c>
       <c r="G2" s="4">
         <v>1700</v>
@@ -1561,19 +1566,19 @@
         <v>2412</v>
       </c>
       <c r="I2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="M2" s="3" t="s">
         <v>17</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="K2" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="L2" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="M2" s="3" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -1581,10 +1586,10 @@
         <v>1980</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D3" s="4">
         <v>-1424</v>
@@ -1593,28 +1598,28 @@
         <v>-2068</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="H3" s="4">
         <v>-1944</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="J3" s="4">
         <v>-1701</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="L3" s="4">
         <v>-2013</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -1622,25 +1627,25 @@
         <v>1981</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="E4" s="4">
         <v>-1462</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="I4" s="4">
         <v>-2118</v>
@@ -1649,10 +1654,10 @@
         <v>-1509</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="M4" s="4">
         <v>1116</v>
@@ -1663,10 +1668,10 @@
         <v>1982</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D5" s="4">
         <v>1603</v>
@@ -1675,25 +1680,25 @@
         <v>1531</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="J5" s="4">
         <v>1580</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="L5" s="3" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="M5" s="4">
         <v>-1934</v>
@@ -1710,34 +1715,34 @@
         <v>-1081</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="H6" s="4">
         <v>1114</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="K6" s="4">
         <v>1193</v>
       </c>
       <c r="L6" s="3" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="M6" s="3" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -1748,34 +1753,34 @@
         <v>-1098</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="F7" s="4">
         <v>-1237</v>
       </c>
       <c r="G7" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="K7" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="H7" s="3" t="s">
+      <c r="L7" s="3" t="s">
         <v>57</v>
-      </c>
-      <c r="I7" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="J7" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="K7" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="L7" s="3" t="s">
-        <v>61</v>
       </c>
       <c r="M7" s="4">
         <v>-1476</v>
@@ -1786,34 +1791,34 @@
         <v>1985</v>
       </c>
       <c r="B8" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="F8" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="G8" s="3" t="s">
         <v>63</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>67</v>
       </c>
       <c r="H8" s="4">
         <v>1914</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="J8" s="4">
         <v>1507</v>
       </c>
       <c r="K8" s="3" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="L8" s="4">
         <v>1085</v>
@@ -1827,40 +1832,40 @@
         <v>1986</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C9" s="4">
         <v>-1588</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="F9" s="4">
         <v>-1847</v>
       </c>
       <c r="G9" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="K9" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="H9" s="3" t="s">
+      <c r="L9" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="I9" s="3" t="s">
+      <c r="M9" s="3" t="s">
         <v>75</v>
-      </c>
-      <c r="J9" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="K9" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="L9" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="M9" s="3" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="10" spans="1:13">
@@ -1868,22 +1873,22 @@
         <v>1987</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="H10" s="4">
         <v>-1531</v>
@@ -1892,16 +1897,16 @@
         <v>1485</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="K10" s="3" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="L10" s="4">
         <v>1060</v>
       </c>
       <c r="M10" s="3" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -1909,37 +1914,37 @@
         <v>1988</v>
       </c>
       <c r="B11" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="F11" s="3" t="s">
         <v>87</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>91</v>
       </c>
       <c r="G11" s="4">
         <v>-1055</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="I11" s="3" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="K11" s="4">
         <v>-2314</v>
       </c>
       <c r="L11" s="3" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="M11" s="4">
         <v>1074</v>
@@ -1950,16 +1955,16 @@
         <v>1989</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="F12" s="4">
         <v>2691</v>
@@ -1971,19 +1976,19 @@
         <v>1458</v>
       </c>
       <c r="I12" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="J12" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="K12" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="L12" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="M12" s="3" t="s">
         <v>99</v>
-      </c>
-      <c r="J12" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="K12" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="L12" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="M12" s="3" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="13" spans="1:13">
@@ -1991,13 +1996,13 @@
         <v>1990</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="C13" s="4">
         <v>1151</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="E13" s="4">
         <v>-1879</v>
@@ -2006,25 +2011,25 @@
         <v>-1803</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="H13" s="4">
         <v>-1215</v>
       </c>
       <c r="I13" s="3" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="J13" s="4">
         <v>1482</v>
       </c>
       <c r="K13" s="3" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="L13" s="3" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="M13" s="3" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
     </row>
     <row r="14" spans="1:13">
@@ -2032,19 +2037,19 @@
         <v>1991</v>
       </c>
       <c r="B14" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="F14" s="3" t="s">
         <v>111</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>115</v>
       </c>
       <c r="G14" s="4">
         <v>-1155</v>
@@ -2053,16 +2058,16 @@
         <v>-1220</v>
       </c>
       <c r="I14" s="3" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="K14" s="3" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="L14" s="3" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="M14" s="4">
         <v>-2067</v>
@@ -2073,7 +2078,7 @@
         <v>1992</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="C15" s="4">
         <v>-1627</v>
@@ -2082,7 +2087,7 @@
         <v>-1010</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="F15" s="4">
         <v>-2032</v>
@@ -2091,22 +2096,22 @@
         <v>-2193</v>
       </c>
       <c r="H15" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="K15" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="L15" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="I15" s="3" t="s">
+      <c r="M15" s="3" t="s">
         <v>123</v>
-      </c>
-      <c r="J15" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="K15" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="L15" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="M15" s="3" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="16" spans="1:13">
@@ -2117,13 +2122,13 @@
         <v>-2021</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="F16" s="4">
         <v>1260</v>
@@ -2141,10 +2146,10 @@
         <v>1061</v>
       </c>
       <c r="K16" s="3" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="L16" s="3" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="M16" s="4">
         <v>1028</v>
@@ -2155,40 +2160,40 @@
         <v>1994</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="C17" s="4">
         <v>1157</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="G17" s="4">
         <v>-1682</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="I17" s="4">
         <v>1910</v>
       </c>
       <c r="J17" s="3" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="K17" s="3" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="L17" s="3" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="M17" s="3" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -2199,34 +2204,34 @@
         <v>1448</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="F18" s="4">
         <v>1397</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="H18" s="4">
         <v>-3010</v>
       </c>
       <c r="I18" s="3" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="J18" s="4">
         <v>1173</v>
       </c>
       <c r="K18" s="3" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="L18" s="3" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="M18" s="4">
         <v>1470</v>
@@ -2237,25 +2242,25 @@
         <v>1996</v>
       </c>
       <c r="B19" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="F19" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="C19" s="3" t="s">
+      <c r="G19" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="D19" s="3" t="s">
+      <c r="H19" s="3" t="s">
         <v>150</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="F19" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="G19" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="H19" s="3" t="s">
-        <v>154</v>
       </c>
       <c r="I19" s="4">
         <v>-1502</v>
@@ -2264,13 +2269,13 @@
         <v>-1314</v>
       </c>
       <c r="K19" s="3" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="L19" s="4">
         <v>-1667</v>
       </c>
       <c r="M19" s="3" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -2278,40 +2283,40 @@
         <v>1997</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="F20" s="4">
         <v>1028</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="H20" s="3" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="I20" s="3" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="J20" s="3" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="K20" s="3" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="L20" s="4">
         <v>-1905</v>
       </c>
       <c r="M20" s="3" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -2319,19 +2324,19 @@
         <v>1998</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="E21" s="4">
         <v>1927</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="G21" s="4">
         <v>1031</v>
@@ -2340,16 +2345,16 @@
         <v>1450</v>
       </c>
       <c r="I21" s="3" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="J21" s="3" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="K21" s="3" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="L21" s="3" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="M21" s="4">
         <v>1435</v>
@@ -2360,16 +2365,16 @@
         <v>1999</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="F22" s="4">
         <v>1639</v>
@@ -2378,19 +2383,19 @@
         <v>-1325</v>
       </c>
       <c r="H22" s="3" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="I22" s="3" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="J22" s="3" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="K22" s="4">
         <v>1653</v>
       </c>
       <c r="L22" s="3" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="M22" s="4">
         <v>1784</v>
@@ -2404,31 +2409,31 @@
         <v>1273</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="F23" s="4">
         <v>1127</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="H23" s="3" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="I23" s="3" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="J23" s="4">
         <v>-1853</v>
       </c>
       <c r="K23" s="3" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="L23" s="4">
         <v>-1537</v>
@@ -2442,28 +2447,28 @@
         <v>2001</v>
       </c>
       <c r="B24" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="F24" s="3" t="s">
         <v>188</v>
       </c>
-      <c r="C24" s="3" t="s">
+      <c r="G24" s="3" t="s">
         <v>189</v>
       </c>
-      <c r="D24" s="3" t="s">
+      <c r="H24" s="3" t="s">
         <v>190</v>
       </c>
-      <c r="E24" s="3" t="s">
+      <c r="I24" s="3" t="s">
         <v>191</v>
-      </c>
-      <c r="F24" s="3" t="s">
-        <v>192</v>
-      </c>
-      <c r="G24" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="H24" s="3" t="s">
-        <v>194</v>
-      </c>
-      <c r="I24" s="3" t="s">
-        <v>195</v>
       </c>
       <c r="J24" s="4">
         <v>1161</v>
@@ -2472,7 +2477,7 @@
         <v>1277</v>
       </c>
       <c r="L24" s="3" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="M24" s="4">
         <v>1474</v>
@@ -2483,7 +2488,7 @@
         <v>2002</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="C25" s="4">
         <v>1334</v>
@@ -2492,7 +2497,7 @@
         <v>-1823</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="F25" s="4">
         <v>-2798</v>
@@ -2501,19 +2506,19 @@
         <v>-1112</v>
       </c>
       <c r="H25" s="3" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="I25" s="3" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="J25" s="3" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="K25" s="4">
         <v>-2564</v>
       </c>
       <c r="L25" s="3" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="M25" s="4">
         <v>1308</v>
@@ -2524,37 +2529,37 @@
         <v>2003</v>
       </c>
       <c r="B26" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="F26" s="3" t="s">
         <v>203</v>
       </c>
-      <c r="C26" s="3" t="s">
+      <c r="G26" s="3" t="s">
         <v>204</v>
       </c>
-      <c r="D26" s="3" t="s">
+      <c r="H26" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="J26" s="3" t="s">
         <v>205</v>
       </c>
-      <c r="E26" s="3" t="s">
+      <c r="K26" s="3" t="s">
         <v>206</v>
       </c>
-      <c r="F26" s="3" t="s">
+      <c r="L26" s="3" t="s">
         <v>207</v>
-      </c>
-      <c r="G26" s="3" t="s">
-        <v>208</v>
-      </c>
-      <c r="H26" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="I26" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="J26" s="3" t="s">
-        <v>209</v>
-      </c>
-      <c r="K26" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="L26" s="3" t="s">
-        <v>211</v>
       </c>
       <c r="M26" s="4">
         <v>-1323</v>
@@ -2565,19 +2570,19 @@
         <v>2004</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="C27" s="4">
         <v>-1182</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="G27" s="4">
         <v>1195</v>
@@ -2586,19 +2591,19 @@
         <v>1474</v>
       </c>
       <c r="I27" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="J27" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="K27" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="L27" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="M27" s="3" t="s">
         <v>216</v>
-      </c>
-      <c r="J27" s="3" t="s">
-        <v>217</v>
-      </c>
-      <c r="K27" s="3" t="s">
-        <v>218</v>
-      </c>
-      <c r="L27" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="M27" s="3" t="s">
-        <v>220</v>
       </c>
     </row>
     <row r="28" spans="1:13">
@@ -2606,37 +2611,37 @@
         <v>2005</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="C28" s="4">
         <v>1243</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="G28" s="4">
         <v>-1428</v>
       </c>
       <c r="H28" s="3" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="I28" s="3" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="J28" s="3" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="K28" s="3" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="L28" s="3" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="M28" s="4">
         <v>-1968</v>
@@ -2647,40 +2652,40 @@
         <v>2006</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="F29" s="4">
         <v>1695</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="H29" s="3" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="I29" s="4">
         <v>-1727</v>
       </c>
       <c r="J29" s="3" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="K29" s="3" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="L29" s="3" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="M29" s="3" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
     </row>
     <row r="30" spans="1:13">
@@ -2688,19 +2693,19 @@
         <v>2007</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="E30" s="4">
         <v>-1035</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="G30" s="4">
         <v>-1198</v>
@@ -2709,16 +2714,16 @@
         <v>-2631</v>
       </c>
       <c r="I30" s="3" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="J30" s="3" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="K30" s="3" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="L30" s="3" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="M30" s="4">
         <v>1929</v>
@@ -2735,22 +2740,22 @@
         <v>1147</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="G31" s="4">
         <v>1348</v>
       </c>
       <c r="H31" s="3" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="I31" s="3" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="J31" s="4">
         <v>1386</v>
@@ -2759,7 +2764,7 @@
         <v>1215</v>
       </c>
       <c r="L31" s="3" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="M31" s="4">
         <v>1194</v>
@@ -2770,40 +2775,40 @@
         <v>2009</v>
       </c>
       <c r="B32" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="G32" s="3" t="s">
         <v>247</v>
-      </c>
-      <c r="C32" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="D32" s="3" t="s">
-        <v>248</v>
-      </c>
-      <c r="E32" s="3" t="s">
-        <v>249</v>
-      </c>
-      <c r="F32" s="3" t="s">
-        <v>250</v>
-      </c>
-      <c r="G32" s="3" t="s">
-        <v>251</v>
       </c>
       <c r="H32" s="4">
         <v>-1234</v>
       </c>
       <c r="I32" s="3" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="J32" s="3" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="K32" s="3" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="L32" s="4">
         <v>-1915</v>
       </c>
       <c r="M32" s="3" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
     </row>
     <row r="33" spans="1:13">
@@ -2811,16 +2816,16 @@
         <v>2010</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="F33" s="4">
         <v>1021</v>
@@ -2835,7 +2840,7 @@
         <v>1510</v>
       </c>
       <c r="J33" s="3" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="K33" s="4">
         <v>1335</v>
@@ -2844,7 +2849,7 @@
         <v>1516</v>
       </c>
       <c r="M33" s="3" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
     </row>
     <row r="34" spans="1:13">
@@ -2852,22 +2857,22 @@
         <v>2011</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="C34" s="4">
         <v>1074</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="F34" s="4">
         <v>1266</v>
       </c>
       <c r="G34" s="3" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="H34" s="4">
         <v>-1384</v>
@@ -2879,10 +2884,10 @@
         <v>-1250</v>
       </c>
       <c r="K34" s="3" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="L34" s="3" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="M34" s="4">
         <v>2573</v>
@@ -2896,37 +2901,37 @@
         <v>1583</v>
       </c>
       <c r="C35" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="F35" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="G35" s="3" t="s">
         <v>266</v>
-      </c>
-      <c r="D35" s="3" t="s">
-        <v>267</v>
-      </c>
-      <c r="E35" s="3" t="s">
-        <v>268</v>
-      </c>
-      <c r="F35" s="3" t="s">
-        <v>269</v>
-      </c>
-      <c r="G35" s="3" t="s">
-        <v>270</v>
       </c>
       <c r="H35" s="4">
         <v>1259</v>
       </c>
       <c r="I35" s="3" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="J35" s="3" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="K35" s="3" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="L35" s="4">
         <v>-1701</v>
       </c>
       <c r="M35" s="3" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
     </row>
     <row r="36" spans="1:13">
@@ -2934,25 +2939,25 @@
         <v>2013</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="D36" s="4">
         <v>1375</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="G36" s="3" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="H36" s="3" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="I36" s="4">
         <v>-1561</v>
@@ -2961,13 +2966,13 @@
         <v>-1658</v>
       </c>
       <c r="K36" s="3" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="L36" s="3" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="M36" s="3" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
     </row>
     <row r="37" spans="1:13">
@@ -2975,37 +2980,37 @@
         <v>2014</v>
       </c>
       <c r="B37" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="E37" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="F37" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="G37" s="3" t="s">
         <v>283</v>
       </c>
-      <c r="C37" s="3" t="s">
+      <c r="H37" s="3" t="s">
         <v>284</v>
       </c>
-      <c r="D37" s="3" t="s">
+      <c r="I37" s="3" t="s">
         <v>285</v>
-      </c>
-      <c r="E37" s="3" t="s">
-        <v>286</v>
-      </c>
-      <c r="F37" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="G37" s="3" t="s">
-        <v>287</v>
-      </c>
-      <c r="H37" s="3" t="s">
-        <v>288</v>
-      </c>
-      <c r="I37" s="3" t="s">
-        <v>289</v>
       </c>
       <c r="J37" s="4">
         <v>-1119</v>
       </c>
       <c r="K37" s="3" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="L37" s="3" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="M37" s="4">
         <v>1322</v>
@@ -3016,22 +3021,22 @@
         <v>2015</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="C38" s="4">
         <v>1217</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="E38" s="4">
         <v>1029</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="G38" s="3" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="H38" s="4">
         <v>1678</v>
@@ -3040,16 +3045,16 @@
         <v>1062</v>
       </c>
       <c r="J38" s="3" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="K38" s="3" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="L38" s="3" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="M38" s="3" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
     </row>
     <row r="39" spans="1:13">
@@ -3066,31 +3071,31 @@
         <v>2038</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="G39" s="4">
         <v>2565</v>
       </c>
       <c r="H39" s="3" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="I39" s="3" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="J39" s="4">
         <v>2333</v>
       </c>
       <c r="K39" s="3" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="L39" s="4">
         <v>-1508</v>
       </c>
       <c r="M39" s="3" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
     </row>
     <row r="40" spans="1:13">
@@ -3098,40 +3103,40 @@
         <v>2017</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="F40" s="4">
         <v>1053</v>
       </c>
       <c r="G40" s="3" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="H40" s="3" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="I40" s="3" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="J40" s="4">
         <v>1296</v>
       </c>
       <c r="K40" s="3" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="L40" s="3" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="M40" s="3" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
     </row>
     <row r="41" spans="1:13">
@@ -3145,34 +3150,34 @@
         <v>1041</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="E41" s="4">
         <v>-1166</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="G41" s="3" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="H41" s="3" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="I41" s="3" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="J41" s="4">
         <v>1458</v>
       </c>
       <c r="K41" s="3" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="L41" s="3" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="M41" s="3" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
     </row>
     <row r="42" spans="1:13">
@@ -3180,34 +3185,34 @@
         <v>2019</v>
       </c>
       <c r="B42" s="3" t="s">
+        <v>315</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>316</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>317</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>318</v>
+      </c>
+      <c r="F42" s="3" t="s">
         <v>319</v>
-      </c>
-      <c r="C42" s="3" t="s">
-        <v>320</v>
-      </c>
-      <c r="D42" s="3" t="s">
-        <v>321</v>
-      </c>
-      <c r="E42" s="3" t="s">
-        <v>322</v>
-      </c>
-      <c r="F42" s="3" t="s">
-        <v>323</v>
       </c>
       <c r="G42" s="4">
         <v>1465</v>
       </c>
       <c r="H42" s="3" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="I42" s="4">
         <v>-1080</v>
       </c>
       <c r="J42" s="3" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="K42" s="3" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="L42" s="4">
         <v>-1840</v>
@@ -3221,37 +3226,37 @@
         <v>2020</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="D43" s="4">
         <v>1426</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="G43" s="4">
         <v>1071</v>
       </c>
       <c r="H43" s="3" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="I43" s="3" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="J43" s="3" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="K43" s="4">
         <v>1264</v>
       </c>
       <c r="L43" s="3" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="M43" s="4">
         <v>1481</v>
@@ -3268,28 +3273,28 @@
         <v>1344</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="F44" s="3" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="G44" s="4">
         <v>1179</v>
       </c>
       <c r="H44" s="3" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="I44" s="3" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="J44" s="4">
         <v>1336</v>
       </c>
       <c r="K44" s="3" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="L44" s="4">
         <v>1321</v>
@@ -3303,34 +3308,34 @@
         <v>2022</v>
       </c>
       <c r="B45" s="3" t="s">
+        <v>335</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>336</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>337</v>
+      </c>
+      <c r="E45" s="3" t="s">
+        <v>338</v>
+      </c>
+      <c r="F45" s="3" t="s">
         <v>339</v>
       </c>
-      <c r="C45" s="3" t="s">
+      <c r="G45" s="3" t="s">
         <v>340</v>
       </c>
-      <c r="D45" s="3" t="s">
+      <c r="H45" s="3" t="s">
         <v>341</v>
       </c>
-      <c r="E45" s="3" t="s">
+      <c r="I45" s="3" t="s">
         <v>342</v>
-      </c>
-      <c r="F45" s="3" t="s">
-        <v>343</v>
-      </c>
-      <c r="G45" s="3" t="s">
-        <v>344</v>
-      </c>
-      <c r="H45" s="3" t="s">
-        <v>345</v>
-      </c>
-      <c r="I45" s="3" t="s">
-        <v>346</v>
       </c>
       <c r="J45" s="4">
         <v>1469</v>
       </c>
       <c r="K45" s="3" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="L45" s="4">
         <v>1713</v>
@@ -3347,34 +3352,34 @@
         <v>2304</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="F46" s="4">
         <v>1452</v>
       </c>
       <c r="G46" s="3" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="H46" s="3" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="I46" s="3" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="J46" s="4">
         <v>-1050</v>
       </c>
       <c r="K46" s="3" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="L46" s="3" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="M46" s="4">
         <v>1510</v>
@@ -3385,40 +3390,40 @@
         <v>2024</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="C47" s="4">
         <v>1043</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="E47" s="4">
         <v>1005</v>
       </c>
       <c r="F47" s="3" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="G47" s="3" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="H47" s="3" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="I47" s="4">
         <v>-2150</v>
       </c>
       <c r="J47" s="3" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="K47" s="3" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="L47" s="4">
         <v>1020</v>
       </c>
       <c r="M47" s="3" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
     </row>
     <row r="48" spans="1:13">
@@ -3426,7 +3431,7 @@
         <v>2025</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="C48" s="3"/>
       <c r="D48" s="3"/>
